--- a/public/2017-03-30.xlsx
+++ b/public/2017-03-30.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harry/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harry/test_mywww/myframe/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="459">
   <si>
     <t>Mobile</t>
   </si>
@@ -1489,15 +1489,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1779,8 +1779,8 @@
   <dimension ref="A1:F156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H153" sqref="H153"/>
+      <pane ySplit="2" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I130" sqref="I130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1792,16 +1792,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1826,10 +1826,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1846,10 +1846,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1866,10 +1866,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1886,10 +1886,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1906,10 +1906,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1926,10 +1926,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1946,10 +1946,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1966,10 +1966,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1986,10 +1986,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -2006,10 +2006,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -2026,10 +2026,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -2046,10 +2046,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -2066,10 +2066,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -2086,10 +2086,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -2106,10 +2106,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="A17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -2126,10 +2126,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -2146,10 +2146,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -2166,10 +2166,10 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -2186,10 +2186,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="4" t="s">
+      <c r="A21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -2206,10 +2206,10 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="4" t="s">
+      <c r="A22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -2226,10 +2226,10 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="4" t="s">
+      <c r="A23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -2246,10 +2246,10 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="4" t="s">
+      <c r="A24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -2266,10 +2266,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="4" t="s">
+      <c r="A25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -2286,10 +2286,10 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="4" t="s">
+      <c r="A26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>86</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -2306,10 +2306,10 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="4" t="s">
+      <c r="A27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>86</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -2326,10 +2326,10 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="4" t="s">
+      <c r="A28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>86</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -2346,10 +2346,10 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="4" t="s">
+      <c r="A29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>86</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -2366,10 +2366,10 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="4" t="s">
+      <c r="A30" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>86</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -2386,10 +2386,10 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="4" t="s">
+      <c r="A31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>86</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -2406,10 +2406,10 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="4" t="s">
+      <c r="A32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>86</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -2426,10 +2426,10 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="4" t="s">
+      <c r="A33" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>86</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -2446,10 +2446,10 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="4" t="s">
+      <c r="A34" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>86</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -2466,10 +2466,10 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="4" t="s">
+      <c r="A35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>86</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -2486,10 +2486,10 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="4" t="s">
+      <c r="A36" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>120</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -2506,10 +2506,10 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="4" t="s">
+      <c r="A37" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>120</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -2526,10 +2526,10 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="4" t="s">
+      <c r="A38" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>120</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -2546,10 +2546,10 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" s="4" t="s">
+      <c r="A39" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>120</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -2566,10 +2566,10 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="4" t="s">
+      <c r="A40" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>120</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -2586,10 +2586,10 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" s="4" t="s">
+      <c r="A41" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>120</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -2606,10 +2606,10 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" s="4" t="s">
+      <c r="A42" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>120</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -2626,10 +2626,10 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43" s="4" t="s">
+      <c r="A43" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>120</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -2646,10 +2646,10 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="4" t="s">
+      <c r="A44" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>120</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -2666,10 +2666,10 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" s="4" t="s">
+      <c r="A45" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>120</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -2686,10 +2686,10 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" s="4" t="s">
+      <c r="A46" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>120</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -2706,10 +2706,10 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" s="4" t="s">
+      <c r="A47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>154</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -2726,10 +2726,10 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B48" s="4" t="s">
+      <c r="A48" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>154</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -2746,10 +2746,10 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B49" s="4" t="s">
+      <c r="A49" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>154</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -2766,10 +2766,10 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A50" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B50" s="4" t="s">
+      <c r="A50" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>154</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -2786,10 +2786,10 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B51" s="4" t="s">
+      <c r="A51" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>154</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -2806,10 +2806,10 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B52" s="4" t="s">
+      <c r="A52" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="7" t="s">
         <v>154</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -2826,10 +2826,10 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" s="4" t="s">
+      <c r="A53" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="7" t="s">
         <v>154</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -2846,10 +2846,10 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A54" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B54" s="4" t="s">
+      <c r="A54" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="7" t="s">
         <v>154</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -2866,10 +2866,10 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A55" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B55" s="4" t="s">
+      <c r="A55" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>154</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -2886,10 +2886,10 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A56" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B56" s="4" t="s">
+      <c r="A56" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>154</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -2906,10 +2906,10 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A57" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B57" s="4" t="s">
+      <c r="A57" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>154</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -2926,10 +2926,10 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A58" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B58" s="4" t="s">
+      <c r="A58" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="7" t="s">
         <v>187</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -2946,10 +2946,10 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A59" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59" s="4" t="s">
+      <c r="A59" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>187</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -2966,10 +2966,10 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A60" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B60" s="4" t="s">
+      <c r="A60" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>187</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -2986,10 +2986,10 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A61" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B61" s="4" t="s">
+      <c r="A61" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>187</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -3006,10 +3006,10 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A62" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B62" s="4" t="s">
+      <c r="A62" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>187</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -3026,10 +3026,10 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A63" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B63" s="4" t="s">
+      <c r="A63" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>187</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -3046,10 +3046,10 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A64" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B64" s="4" t="s">
+      <c r="A64" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="7" t="s">
         <v>187</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -3066,10 +3066,10 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A65" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B65" s="4" t="s">
+      <c r="A65" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="7" t="s">
         <v>187</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -3086,10 +3086,10 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A66" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B66" s="4" t="s">
+      <c r="A66" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="7" t="s">
         <v>187</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -3106,10 +3106,10 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A67" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B67" s="4" t="s">
+      <c r="A67" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="7" t="s">
         <v>187</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -3126,10 +3126,10 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A68" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B68" s="4" t="s">
+      <c r="A68" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="7" t="s">
         <v>187</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -3146,10 +3146,10 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A69" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B69" s="4" t="s">
+      <c r="A69" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="7" t="s">
         <v>221</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -3166,10 +3166,10 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A70" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B70" s="4" t="s">
+      <c r="A70" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="7" t="s">
         <v>221</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -3186,10 +3186,10 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A71" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B71" s="4" t="s">
+      <c r="A71" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>221</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -3206,10 +3206,10 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A72" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B72" s="4" t="s">
+      <c r="A72" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" s="7" t="s">
         <v>221</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -3226,10 +3226,10 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A73" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B73" s="4" t="s">
+      <c r="A73" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" s="7" t="s">
         <v>221</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -3246,10 +3246,10 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A74" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B74" s="4" t="s">
+      <c r="A74" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" s="7" t="s">
         <v>221</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -3266,10 +3266,10 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A75" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B75" s="4" t="s">
+      <c r="A75" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="7" t="s">
         <v>221</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -3286,10 +3286,10 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A76" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B76" s="4" t="s">
+      <c r="A76" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" s="7" t="s">
         <v>221</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -3306,10 +3306,10 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A77" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B77" s="4" t="s">
+      <c r="A77" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" s="7" t="s">
         <v>221</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -3326,10 +3326,10 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A78" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B78" s="4" t="s">
+      <c r="A78" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="7" t="s">
         <v>221</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -3346,10 +3346,10 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A79" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B79" s="4" t="s">
+      <c r="A79" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" s="7" t="s">
         <v>221</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -3366,10 +3366,10 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A80" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B80" s="4" t="s">
+      <c r="A80" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B80" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -3386,10 +3386,10 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A81" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B81" s="4" t="s">
+      <c r="A81" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B81" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -3406,10 +3406,10 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A82" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B82" s="4" t="s">
+      <c r="A82" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B82" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -3426,10 +3426,10 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A83" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B83" s="4" t="s">
+      <c r="A83" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B83" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -3446,10 +3446,10 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A84" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B84" s="4" t="s">
+      <c r="A84" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B84" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -3466,10 +3466,10 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A85" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B85" s="4" t="s">
+      <c r="A85" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B85" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -3486,10 +3486,10 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A86" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B86" s="4" t="s">
+      <c r="A86" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B86" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -3506,10 +3506,10 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A87" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B87" s="4" t="s">
+      <c r="A87" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B87" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -3526,10 +3526,10 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A88" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B88" s="4" t="s">
+      <c r="A88" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B88" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -3546,10 +3546,10 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A89" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B89" s="4" t="s">
+      <c r="A89" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B89" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -3566,10 +3566,10 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A90" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B90" s="4" t="s">
+      <c r="A90" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B90" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -3586,10 +3586,10 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A91" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B91" s="4" t="s">
+      <c r="A91" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B91" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C91" s="1" t="s">
@@ -3606,10 +3606,10 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A92" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B92" s="4" t="s">
+      <c r="A92" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B92" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C92" s="1" t="s">
@@ -3626,10 +3626,10 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A93" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B93" s="4" t="s">
+      <c r="A93" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B93" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C93" s="1" t="s">
@@ -3646,10 +3646,10 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A94" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B94" s="4" t="s">
+      <c r="A94" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B94" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C94" s="1" t="s">
@@ -3666,10 +3666,10 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A95" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B95" s="4" t="s">
+      <c r="A95" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B95" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C95" s="1" t="s">
@@ -3686,10 +3686,10 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A96" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B96" s="4" t="s">
+      <c r="A96" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B96" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C96" s="1" t="s">
@@ -3706,10 +3706,10 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A97" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B97" s="4" t="s">
+      <c r="A97" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B97" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C97" s="1" t="s">
@@ -3726,10 +3726,10 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A98" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B98" s="4" t="s">
+      <c r="A98" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B98" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -3746,10 +3746,10 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A99" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B99" s="4" t="s">
+      <c r="A99" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B99" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C99" s="1" t="s">
@@ -3766,10 +3766,10 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A100" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B100" s="4" t="s">
+      <c r="A100" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B100" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C100" s="1" t="s">
@@ -3786,10 +3786,10 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A101" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B101" s="4" t="s">
+      <c r="A101" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B101" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C101" s="1" t="s">
@@ -3806,10 +3806,10 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A102" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B102" s="4" t="s">
+      <c r="A102" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B102" s="7" t="s">
         <v>86</v>
       </c>
       <c r="C102" s="1" t="s">
@@ -3826,10 +3826,10 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A103" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B103" s="4" t="s">
+      <c r="A103" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B103" s="7" t="s">
         <v>86</v>
       </c>
       <c r="C103" s="1" t="s">
@@ -3846,10 +3846,10 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A104" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B104" s="4" t="s">
+      <c r="A104" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B104" s="7" t="s">
         <v>86</v>
       </c>
       <c r="C104" s="1" t="s">
@@ -3866,10 +3866,10 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A105" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B105" s="4" t="s">
+      <c r="A105" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B105" s="7" t="s">
         <v>86</v>
       </c>
       <c r="C105" s="1" t="s">
@@ -3886,10 +3886,10 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A106" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B106" s="4" t="s">
+      <c r="A106" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B106" s="7" t="s">
         <v>86</v>
       </c>
       <c r="C106" s="1" t="s">
@@ -3906,10 +3906,10 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A107" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B107" s="4" t="s">
+      <c r="A107" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B107" s="7" t="s">
         <v>86</v>
       </c>
       <c r="C107" s="1" t="s">
@@ -3926,10 +3926,10 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A108" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B108" s="4" t="s">
+      <c r="A108" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B108" s="7" t="s">
         <v>86</v>
       </c>
       <c r="C108" s="1" t="s">
@@ -3946,10 +3946,10 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A109" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B109" s="4" t="s">
+      <c r="A109" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B109" s="7" t="s">
         <v>86</v>
       </c>
       <c r="C109" s="1" t="s">
@@ -3966,10 +3966,10 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A110" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B110" s="4" t="s">
+      <c r="A110" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B110" s="7" t="s">
         <v>86</v>
       </c>
       <c r="C110" s="1" t="s">
@@ -3986,10 +3986,10 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A111" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B111" s="4" t="s">
+      <c r="A111" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B111" s="7" t="s">
         <v>86</v>
       </c>
       <c r="C111" s="1" t="s">
@@ -4006,10 +4006,10 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A112" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B112" s="4" t="s">
+      <c r="A112" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B112" s="7" t="s">
         <v>86</v>
       </c>
       <c r="C112" s="1" t="s">
@@ -4026,10 +4026,10 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A113" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B113" s="4" t="s">
+      <c r="A113" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B113" s="7" t="s">
         <v>120</v>
       </c>
       <c r="C113" s="1" t="s">
@@ -4046,10 +4046,10 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A114" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B114" s="4" t="s">
+      <c r="A114" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B114" s="7" t="s">
         <v>120</v>
       </c>
       <c r="C114" s="1" t="s">
@@ -4066,10 +4066,10 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A115" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B115" s="4" t="s">
+      <c r="A115" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B115" s="7" t="s">
         <v>120</v>
       </c>
       <c r="C115" s="1" t="s">
@@ -4086,10 +4086,10 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A116" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B116" s="4" t="s">
+      <c r="A116" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B116" s="7" t="s">
         <v>120</v>
       </c>
       <c r="C116" s="1" t="s">
@@ -4106,10 +4106,10 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A117" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B117" s="4" t="s">
+      <c r="A117" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B117" s="7" t="s">
         <v>120</v>
       </c>
       <c r="C117" s="1" t="s">
@@ -4126,10 +4126,10 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A118" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B118" s="4" t="s">
+      <c r="A118" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B118" s="7" t="s">
         <v>120</v>
       </c>
       <c r="C118" s="1" t="s">
@@ -4146,10 +4146,10 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A119" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B119" s="4" t="s">
+      <c r="A119" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B119" s="7" t="s">
         <v>120</v>
       </c>
       <c r="C119" s="1" t="s">
@@ -4166,10 +4166,10 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A120" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B120" s="4" t="s">
+      <c r="A120" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B120" s="7" t="s">
         <v>120</v>
       </c>
       <c r="C120" s="1" t="s">
@@ -4186,10 +4186,10 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A121" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B121" s="4" t="s">
+      <c r="A121" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B121" s="7" t="s">
         <v>120</v>
       </c>
       <c r="C121" s="1" t="s">
@@ -4206,10 +4206,10 @@
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A122" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B122" s="4" t="s">
+      <c r="A122" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B122" s="7" t="s">
         <v>120</v>
       </c>
       <c r="C122" s="1" t="s">
@@ -4226,10 +4226,10 @@
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A123" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B123" s="4" t="s">
+      <c r="A123" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B123" s="7" t="s">
         <v>120</v>
       </c>
       <c r="C123" s="1" t="s">
@@ -4246,10 +4246,10 @@
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A124" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B124" s="4" t="s">
+      <c r="A124" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B124" s="7" t="s">
         <v>154</v>
       </c>
       <c r="C124" s="1" t="s">
@@ -4266,10 +4266,10 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A125" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B125" s="4" t="s">
+      <c r="A125" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B125" s="7" t="s">
         <v>154</v>
       </c>
       <c r="C125" s="1" t="s">
@@ -4286,10 +4286,10 @@
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A126" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B126" s="4" t="s">
+      <c r="A126" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B126" s="7" t="s">
         <v>154</v>
       </c>
       <c r="C126" s="1" t="s">
@@ -4306,10 +4306,10 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A127" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B127" s="4" t="s">
+      <c r="A127" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B127" s="7" t="s">
         <v>154</v>
       </c>
       <c r="C127" s="1" t="s">
@@ -4326,10 +4326,10 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A128" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B128" s="4" t="s">
+      <c r="A128" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B128" s="7" t="s">
         <v>154</v>
       </c>
       <c r="C128" s="1" t="s">
@@ -4346,10 +4346,10 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A129" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B129" s="4" t="s">
+      <c r="A129" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B129" s="7" t="s">
         <v>154</v>
       </c>
       <c r="C129" s="1" t="s">
@@ -4366,10 +4366,10 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A130" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B130" s="4" t="s">
+      <c r="A130" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B130" s="7" t="s">
         <v>154</v>
       </c>
       <c r="C130" s="1" t="s">
@@ -4386,10 +4386,10 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A131" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B131" s="4" t="s">
+      <c r="A131" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B131" s="7" t="s">
         <v>154</v>
       </c>
       <c r="C131" s="1" t="s">
@@ -4406,10 +4406,10 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A132" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B132" s="4" t="s">
+      <c r="A132" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B132" s="7" t="s">
         <v>154</v>
       </c>
       <c r="C132" s="1" t="s">
@@ -4421,15 +4421,15 @@
       <c r="E132" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="F132" s="1" t="s">
-        <v>386</v>
+      <c r="F132" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A133" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B133" s="4" t="s">
+      <c r="A133" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B133" s="7" t="s">
         <v>154</v>
       </c>
       <c r="C133" s="1" t="s">
@@ -4446,10 +4446,10 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A134" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B134" s="4" t="s">
+      <c r="A134" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B134" s="7" t="s">
         <v>154</v>
       </c>
       <c r="C134" s="1" t="s">
@@ -4466,10 +4466,10 @@
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A135" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B135" s="4" t="s">
+      <c r="A135" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B135" s="7" t="s">
         <v>187</v>
       </c>
       <c r="C135" s="1" t="s">
@@ -4486,10 +4486,10 @@
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A136" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B136" s="4" t="s">
+      <c r="A136" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B136" s="7" t="s">
         <v>187</v>
       </c>
       <c r="C136" s="1" t="s">
@@ -4506,10 +4506,10 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A137" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B137" s="4" t="s">
+      <c r="A137" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B137" s="7" t="s">
         <v>187</v>
       </c>
       <c r="C137" s="1" t="s">
@@ -4526,10 +4526,10 @@
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A138" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B138" s="4" t="s">
+      <c r="A138" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B138" s="7" t="s">
         <v>187</v>
       </c>
       <c r="C138" s="1" t="s">
@@ -4546,10 +4546,10 @@
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A139" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B139" s="4" t="s">
+      <c r="A139" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B139" s="7" t="s">
         <v>187</v>
       </c>
       <c r="C139" s="1" t="s">
@@ -4566,10 +4566,10 @@
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A140" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B140" s="4" t="s">
+      <c r="A140" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B140" s="7" t="s">
         <v>187</v>
       </c>
       <c r="C140" s="1" t="s">
@@ -4586,10 +4586,10 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A141" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B141" s="4" t="s">
+      <c r="A141" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B141" s="7" t="s">
         <v>187</v>
       </c>
       <c r="C141" s="1" t="s">
@@ -4606,10 +4606,10 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A142" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B142" s="4" t="s">
+      <c r="A142" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B142" s="7" t="s">
         <v>187</v>
       </c>
       <c r="C142" s="1" t="s">
@@ -4626,10 +4626,10 @@
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A143" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B143" s="4" t="s">
+      <c r="A143" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B143" s="7" t="s">
         <v>187</v>
       </c>
       <c r="C143" s="1" t="s">
@@ -4646,10 +4646,10 @@
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A144" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B144" s="4" t="s">
+      <c r="A144" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B144" s="7" t="s">
         <v>187</v>
       </c>
       <c r="C144" s="1" t="s">
@@ -4666,10 +4666,10 @@
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A145" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B145" s="4" t="s">
+      <c r="A145" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B145" s="7" t="s">
         <v>187</v>
       </c>
       <c r="C145" s="1" t="s">
@@ -4686,10 +4686,10 @@
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A146" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B146" s="4" t="s">
+      <c r="A146" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B146" s="7" t="s">
         <v>221</v>
       </c>
       <c r="C146" s="1" t="s">
@@ -4706,10 +4706,10 @@
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A147" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B147" s="4" t="s">
+      <c r="A147" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B147" s="7" t="s">
         <v>221</v>
       </c>
       <c r="C147" s="1" t="s">
@@ -4726,10 +4726,10 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A148" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B148" s="4" t="s">
+      <c r="A148" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B148" s="7" t="s">
         <v>221</v>
       </c>
       <c r="C148" s="1" t="s">
@@ -4746,10 +4746,10 @@
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A149" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B149" s="4" t="s">
+      <c r="A149" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B149" s="7" t="s">
         <v>221</v>
       </c>
       <c r="C149" s="1" t="s">
@@ -4766,10 +4766,10 @@
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A150" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B150" s="4" t="s">
+      <c r="A150" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B150" s="7" t="s">
         <v>221</v>
       </c>
       <c r="C150" s="1" t="s">
@@ -4786,10 +4786,10 @@
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A151" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B151" s="4" t="s">
+      <c r="A151" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B151" s="7" t="s">
         <v>221</v>
       </c>
       <c r="C151" s="1" t="s">
@@ -4806,10 +4806,10 @@
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A152" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B152" s="4" t="s">
+      <c r="A152" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B152" s="7" t="s">
         <v>221</v>
       </c>
       <c r="C152" s="1" t="s">
@@ -4826,10 +4826,10 @@
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A153" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B153" s="4" t="s">
+      <c r="A153" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B153" s="7" t="s">
         <v>221</v>
       </c>
       <c r="C153" s="1" t="s">
@@ -4846,10 +4846,10 @@
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A154" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B154" s="4" t="s">
+      <c r="A154" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B154" s="7" t="s">
         <v>221</v>
       </c>
       <c r="C154" s="1" t="s">
@@ -4866,10 +4866,10 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A155" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B155" s="4" t="s">
+      <c r="A155" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B155" s="7" t="s">
         <v>221</v>
       </c>
       <c r="C155" s="1" t="s">
@@ -4886,10 +4886,10 @@
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A156" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B156" s="4" t="s">
+      <c r="A156" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B156" s="7" t="s">
         <v>221</v>
       </c>
       <c r="C156" s="1" t="s">
@@ -4907,6 +4907,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B135:B145"/>
+    <mergeCell ref="B146:B156"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="A3:A79"/>
@@ -4923,8 +4925,6 @@
     <mergeCell ref="B102:B112"/>
     <mergeCell ref="B113:B123"/>
     <mergeCell ref="B124:B134"/>
-    <mergeCell ref="B135:B145"/>
-    <mergeCell ref="B146:B156"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
